--- a/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
+++ b/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
@@ -5,33 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA8D72E-75AC-429D-9615-0FBC781E30BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563E4B2-5B37-411B-BCA9-47DFB2E570F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ficha" sheetId="1" r:id="rId1"/>
+    <sheet name="Pacotes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Ficha!$A$1:$D$27</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t>Produto/ Serviço</t>
   </si>
@@ -100,9 +98,6 @@
   </si>
   <si>
     <t>Há alguma habilidade, equipamento, sistema, etc. que seja necessário?</t>
-  </si>
-  <si>
-    <t>Poderá ser necessária a contratação de serviços de TI para facilitar a implementação de controle, a contratação de um estagiário para auxiliar na manipulação de dados e a contratação de mão de obra temporária para auxiliar na coleta de dados referentes a perdas.</t>
   </si>
   <si>
     <t xml:space="preserve">Quem são as pessoas chaves
@@ -143,20 +138,289 @@
     <t xml:space="preserve">Durante o processo de matrícula de medicina para o semestre 2019-2 foram reportados casos de atendimento com tempo superior à 50min., média atual para o processo. Problemas de infra estrutura (espaço físico e recursos de TI) foram reportados, assim como necessidade de preparação de equipe com maior antecedência. </t>
   </si>
   <si>
-    <t>Redução do tempo de matrícula presencial para até 15 min; Possibilitar matrícula online; Possibilitar agendamento para etapas presenciais; Assegurar tempo de espera zero para as atividades agendadas. Aferir a satisfação do aluno durante o processo de matrícula; Inverter a ordem entre matrículas, primeiro financeira e posteriormente a acadêmica.</t>
-  </si>
-  <si>
-    <t>Com o início da matricula trimestral, avaliar equipe fixa.</t>
-  </si>
-  <si>
-    <t>Precificar antecipadamente = Aluno conhecer valor por cheque, antes da matricula.</t>
+    <t>Diretores envolvidos</t>
+  </si>
+  <si>
+    <t>Contratação do fornecedor do ERP Acadêmico para garantir implementações no sistema e portal à tempo para matrícula 2019-2</t>
+  </si>
+  <si>
+    <t>Neila Gonçalves (CM); Ronaldo Carneiro (CM); Ricardo Luzardo (CM); Rafael Ferreira (CM)</t>
+  </si>
+  <si>
+    <t>Josane Oliveira (DA); Barbara de Oliveira (DA)</t>
+  </si>
+  <si>
+    <t>Ana Paula dos Santos (DF); Nelson de Almeida (DF)</t>
+  </si>
+  <si>
+    <t>- Abordagem holística do processo de matrícula, buscando capturar todas as suas dimensões e o relacionamento entre elas;
+- Medição estruturada do processo de matrícula, suas etapas, tempos, movimentos e demais atributos;
+- Entendimento, redesenho, instrumentação, padronização e documentação do processo de matrícula;
+- Inversão da ordem entre matrículas, primeiro financeira e posteriormente a acadêmica;
+- Dimensionamento, seleção e capacitação da equipe de atendimento de matrícula, incluindo responsáveis e supervisores;
+- Avaliação da possibilidade de instituição de equipe permanente;
+- Expansão dos serviços de auto-atendimento do portal do aluno para melhoria matrícula;
+- Montagem, com antecedência, de infra-estrutra física e de equipamentos para atendimento presencial;
+- Redução do tempo de validação para efetivação das matrículas acadêmica e financeira;
+- Criação de canais de comunicação com os alunos para melhor os informar sobre pendências, valores e processo de matrícula como um todo;</t>
+  </si>
+  <si>
+    <t>Redução do tempo de matrícula presencial para até 15 min; Possibilitar matrícula online; Possibilitar agendamento para etapas presenciais; Assegurar tempo de espera zero para as atividades agendadas. Aferir a satisfação do aluno durante o processo de matrícula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecipação financeira
+MatrÍculas financeira e acadêmica
+</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Aluno</t>
+  </si>
+  <si>
+    <t>Satisfação</t>
+  </si>
+  <si>
+    <t>Tempo necessário</t>
+  </si>
+  <si>
+    <t>Modalidade preferencial</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>Previsibilidade da antecipação financeira</t>
+  </si>
+  <si>
+    <t>Processo</t>
+  </si>
+  <si>
+    <t>Desempenho por etapas e modalidades</t>
+  </si>
+  <si>
+    <t>Recursos consumidos por matrícula</t>
+  </si>
+  <si>
+    <t>Mobilização da infraestrutura emandada</t>
+  </si>
+  <si>
+    <t>Mobilização das equipes demandadas</t>
+  </si>
+  <si>
+    <t>Pacotes de Trabalho</t>
+  </si>
+  <si>
+    <t>Upgrade do Lyceum</t>
+  </si>
+  <si>
+    <t>Especificação de mudanças no portal</t>
+  </si>
+  <si>
+    <t>Execução de mudanças no portal</t>
+  </si>
+  <si>
+    <t>Especificação de infra - estações</t>
+  </si>
+  <si>
+    <t>Suporte de TI</t>
+  </si>
+  <si>
+    <t>Treinamento de funcionalidades</t>
+  </si>
+  <si>
+    <t>Especificação de infra - máquinas de cheque (R&amp;W)</t>
+  </si>
+  <si>
+    <t>Especificação de infra - totens</t>
+  </si>
+  <si>
+    <t>Montagem de espaço físico</t>
+  </si>
+  <si>
+    <t>Escolha de local</t>
+  </si>
+  <si>
+    <t>Revisão de estrutura elétrica</t>
+  </si>
+  <si>
+    <t>Limpeza e preparação do espaço</t>
+  </si>
+  <si>
+    <t>Seleção e capacitação da equipe</t>
+  </si>
+  <si>
+    <t>Seleção de líderes e responsáveis pelo processo</t>
+  </si>
+  <si>
+    <t>Seleção de equipe de atendimento presencial</t>
+  </si>
+  <si>
+    <t>Capacitação - Postura e valores da instituição</t>
+  </si>
+  <si>
+    <t>Capacitação - Sistema e equipamentos</t>
+  </si>
+  <si>
+    <t>Montagem/Documentação de scripts de atendimento</t>
+  </si>
+  <si>
+    <t>Montagem de equipamentos</t>
+  </si>
+  <si>
+    <t>Especificação de infra - rede e alta disponibilidade</t>
+  </si>
+  <si>
+    <t>Instalação para mátricula</t>
+  </si>
+  <si>
+    <t>Estruturação de turnos de trabalho</t>
+  </si>
+  <si>
+    <t>Mapeamento dos processos</t>
+  </si>
+  <si>
+    <t>Matricula presencial</t>
+  </si>
+  <si>
+    <t>Atendimento agendado</t>
+  </si>
+  <si>
+    <t>Matricula online</t>
+  </si>
+  <si>
+    <t>Antecipação</t>
+  </si>
+  <si>
+    <t>Aprovação financeira</t>
+  </si>
+  <si>
+    <t>Elaboração de manual para aluno</t>
+  </si>
+  <si>
+    <t>Resolução de pendências</t>
+  </si>
+  <si>
+    <t>Comunicação de pendências</t>
+  </si>
+  <si>
+    <t>Comunicação de valores</t>
+  </si>
+  <si>
+    <t>Gravação de video institucional</t>
+  </si>
+  <si>
+    <t>Fluxo de negociação</t>
+  </si>
+  <si>
+    <t>Homologação</t>
+  </si>
+  <si>
+    <t>Validação de funcionalidades - sistema</t>
+  </si>
+  <si>
+    <t>Validação de funcionalidades - portal</t>
+  </si>
+  <si>
+    <t>Simulação para cada cenário/modalidade de matrícula</t>
+  </si>
+  <si>
+    <t>Aprovação de novos fluxos</t>
+  </si>
+  <si>
+    <t>Validação de funcionalidades necessárias no Lyceum</t>
+  </si>
+  <si>
+    <t>Diretoria Reponsável</t>
+  </si>
+  <si>
+    <t>Responsável direto</t>
+  </si>
+  <si>
+    <t>DTI</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Juliano</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>DTI/CM</t>
+  </si>
+  <si>
+    <t>Barata/André</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>SG/CM</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Predecessoras</t>
+  </si>
+  <si>
+    <t>Tempo Estimado</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Pacote</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Plano de comunicação (contatos de responsáveis)</t>
+  </si>
+  <si>
+    <t>Plano de contingência/continuidade</t>
+  </si>
+  <si>
+    <t>Mapa de escalonamento</t>
+  </si>
+  <si>
+    <t>Dimensionamento da capacidade de atendimento</t>
+  </si>
+  <si>
+    <t>Especificação da mobilia e materiais para matrícula</t>
+  </si>
+  <si>
+    <t>Map. Processos</t>
+  </si>
+  <si>
+    <t>Capacidade de Atend.</t>
+  </si>
+  <si>
+    <t>Execução de mudanças no Lyceum</t>
+  </si>
+  <si>
+    <t>Estratégia de comunição</t>
+  </si>
+  <si>
+    <t>Levantamento de dados para dimensionamento de capacidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,16 +469,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -322,12 +608,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,87 +869,107 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,255 +1285,1034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10767C-46AD-437F-8E38-0A0AE36590CD}">
-  <dimension ref="A1:D25"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="C1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="4" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="32">
-        <v>43572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="32">
-        <v>43619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
+      <c r="D27" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
+  <mergeCells count="24">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="3" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FB8F9C-B598-4689-A06A-6A3FAD0895EB}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="63" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="67">
+        <v>0</v>
+      </c>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="55"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0</v>
+      </c>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="58"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="67">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="68">
+        <v>0</v>
+      </c>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="55"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="68">
+        <v>0</v>
+      </c>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="68">
+        <v>0</v>
+      </c>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="68">
+        <v>0</v>
+      </c>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="55"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="68"/>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="55"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="59"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="57"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="69"/>
+      <c r="G22" s="58"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="54"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="55"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="68">
+        <v>0</v>
+      </c>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="55"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="57"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="58"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="67">
+        <v>0</v>
+      </c>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="55"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="56"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="55"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="55"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="56"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="56"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="55"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="59"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="57"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="54"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="55"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="55"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="56"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="55"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="59"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="57"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="58"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="54"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="55"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="68"/>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="55"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="68"/>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="57"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="69"/>
+      <c r="G44" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
+++ b/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563E4B2-5B37-411B-BCA9-47DFB2E570F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78694F8-571F-4850-BD0E-B0BC4BF4F5E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
+    <workbookView minimized="1" xWindow="4584" yWindow="1572" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
   </bookViews>
   <sheets>
     <sheet name="Ficha" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Ficha!$A$1:$D$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="165">
   <si>
     <t>Produto/ Serviço</t>
   </si>
@@ -218,21 +224,12 @@
     <t>Upgrade do Lyceum</t>
   </si>
   <si>
-    <t>Especificação de mudanças no portal</t>
-  </si>
-  <si>
-    <t>Execução de mudanças no portal</t>
-  </si>
-  <si>
     <t>Especificação de infra - estações</t>
   </si>
   <si>
     <t>Suporte de TI</t>
   </si>
   <si>
-    <t>Treinamento de funcionalidades</t>
-  </si>
-  <si>
     <t>Especificação de infra - máquinas de cheque (R&amp;W)</t>
   </si>
   <si>
@@ -254,18 +251,9 @@
     <t>Seleção e capacitação da equipe</t>
   </si>
   <si>
-    <t>Seleção de líderes e responsáveis pelo processo</t>
-  </si>
-  <si>
-    <t>Seleção de equipe de atendimento presencial</t>
-  </si>
-  <si>
     <t>Capacitação - Postura e valores da instituição</t>
   </si>
   <si>
-    <t>Capacitação - Sistema e equipamentos</t>
-  </si>
-  <si>
     <t>Montagem/Documentação de scripts de atendimento</t>
   </si>
   <si>
@@ -275,18 +263,12 @@
     <t>Especificação de infra - rede e alta disponibilidade</t>
   </si>
   <si>
-    <t>Instalação para mátricula</t>
-  </si>
-  <si>
     <t>Estruturação de turnos de trabalho</t>
   </si>
   <si>
     <t>Mapeamento dos processos</t>
   </si>
   <si>
-    <t>Matricula presencial</t>
-  </si>
-  <si>
     <t>Atendimento agendado</t>
   </si>
   <si>
@@ -296,9 +278,6 @@
     <t>Antecipação</t>
   </si>
   <si>
-    <t>Aprovação financeira</t>
-  </si>
-  <si>
     <t>Elaboração de manual para aluno</t>
   </si>
   <si>
@@ -332,21 +311,12 @@
     <t>Aprovação de novos fluxos</t>
   </si>
   <si>
-    <t>Validação de funcionalidades necessárias no Lyceum</t>
-  </si>
-  <si>
     <t>Diretoria Reponsável</t>
   </si>
   <si>
     <t>Responsável direto</t>
   </si>
   <si>
-    <t>DTI</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
     <t>Fabio</t>
   </si>
   <si>
@@ -356,9 +326,6 @@
     <t>Sergio</t>
   </si>
   <si>
-    <t>DTI/CM</t>
-  </si>
-  <si>
     <t>Barata/André</t>
   </si>
   <si>
@@ -374,9 +341,6 @@
     <t>Predecessoras</t>
   </si>
   <si>
-    <t>Tempo Estimado</t>
-  </si>
-  <si>
     <t>Produto</t>
   </si>
   <si>
@@ -398,9 +362,6 @@
     <t>Dimensionamento da capacidade de atendimento</t>
   </si>
   <si>
-    <t>Especificação da mobilia e materiais para matrícula</t>
-  </si>
-  <si>
     <t>Map. Processos</t>
   </si>
   <si>
@@ -414,6 +375,174 @@
   </si>
   <si>
     <t>Levantamento de dados para dimensionamento de capacidade</t>
+  </si>
+  <si>
+    <t>Implementação do E-commerce com Cielo</t>
+  </si>
+  <si>
+    <t>DOTI</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>Neila</t>
+  </si>
+  <si>
+    <t>Jamile</t>
+  </si>
+  <si>
+    <t>Barata</t>
+  </si>
+  <si>
+    <t>Definição de glossário de termos para a Matrícula</t>
+  </si>
+  <si>
+    <t>Matricula financeira presencial</t>
+  </si>
+  <si>
+    <t>Matricula acadêmica presencial</t>
+  </si>
+  <si>
+    <t>Rematricula financeira presencial</t>
+  </si>
+  <si>
+    <t>Rematricula acadêmica presencial</t>
+  </si>
+  <si>
+    <t>Avaliação de inclusão do fiador</t>
+  </si>
+  <si>
+    <t>Aprovação financeira/Avaliação de crédito</t>
+  </si>
+  <si>
+    <t>Tempo Estimado (H)</t>
+  </si>
+  <si>
+    <t>Definição das estratégias de constituição de equipes de matricula</t>
+  </si>
+  <si>
+    <t>Simões</t>
+  </si>
+  <si>
+    <t>Definição do cronograma</t>
+  </si>
+  <si>
+    <t>Estimativa do contingente de alunos por modalidade</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>Instalação para matricula</t>
+  </si>
+  <si>
+    <t>Capacitação - Processos, sistema e equipamentos</t>
+  </si>
+  <si>
+    <t>Mobilização de recursos</t>
+  </si>
+  <si>
+    <t>Valdemir</t>
+  </si>
+  <si>
+    <t>Seleção e contratação de líderes e responsáveis pelo processo</t>
+  </si>
+  <si>
+    <t>Seleção e contratação de equipe de atendimento presencial</t>
+  </si>
+  <si>
+    <t>Mobilia/facilities</t>
+  </si>
+  <si>
+    <t>Infra tecnologica</t>
+  </si>
+  <si>
+    <t>Material de divulgação</t>
+  </si>
+  <si>
+    <t>Data limite: 03/06</t>
+  </si>
+  <si>
+    <t>Data limite: 27/05</t>
+  </si>
+  <si>
+    <t>Data limite: 31/05</t>
+  </si>
+  <si>
+    <t>Especificação da mobilia, equipamentos e materiais para matrícula</t>
+  </si>
+  <si>
+    <t>Data limite: 20/05</t>
+  </si>
+  <si>
+    <t>Data limite: 09/05</t>
+  </si>
+  <si>
+    <t>Data limite: 02/05</t>
+  </si>
+  <si>
+    <t>Recepção, serviços e opções de conforto</t>
+  </si>
+  <si>
+    <t>Elaboração de manual de treinamento para equipe</t>
+  </si>
+  <si>
+    <t>Planejamento de mídia</t>
+  </si>
+  <si>
+    <t>Milena</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>Levantamento pendências</t>
+  </si>
+  <si>
+    <t>Levantamento de valores</t>
+  </si>
+  <si>
+    <t>Definição de fardamento</t>
+  </si>
+  <si>
+    <t>DOTI/CM</t>
+  </si>
+  <si>
+    <t>Processo de verificação/monitoramento de ambiente</t>
+  </si>
+  <si>
+    <t>Especificação de modalidades de pagamento online (CLY)</t>
+  </si>
+  <si>
+    <t>Garantir controle de descontos (CLY)</t>
+  </si>
+  <si>
+    <t>Redefinição da estrutura de numeração da matricula do aluno (Customização do Lyceum - CLY)</t>
+  </si>
+  <si>
+    <t>Redefinição de processo de pagamento com cheques (CLY)</t>
+  </si>
+  <si>
+    <t>Redefinição de processo para alunos fora de fluxo (disciplinas) (CLY)</t>
+  </si>
+  <si>
+    <t>Apresentação de valores das modalidades de pagamento para aluno</t>
+  </si>
+  <si>
+    <t>Treinamento de novas funcionalidades</t>
+  </si>
+  <si>
+    <t>Preparação de manuais de novas funcionalidades</t>
+  </si>
+  <si>
+    <t>Definição de funcionalidades para totens</t>
+  </si>
+  <si>
+    <t>Implementação de sistema para totens</t>
+  </si>
+  <si>
+    <t>21-24</t>
   </si>
 </sst>
 </file>
@@ -486,7 +615,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,8 +628,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -622,15 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -797,11 +923,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -854,6 +1047,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -881,6 +1168,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -899,77 +1213,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,16 +1554,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1369,10 +1620,10 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1381,10 +1632,10 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1393,10 +1644,10 @@
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1405,10 +1656,10 @@
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1417,60 +1668,60 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1481,9 +1732,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="39" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="79" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -1491,24 +1742,24 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="16" t="s">
         <v>49</v>
       </c>
@@ -1517,9 +1768,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="39" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -1527,40 +1778,40 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="41"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="28"/>
+      <c r="D25" s="83"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="27" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="83"/>
     </row>
     <row r="27" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -1569,10 +1820,10 @@
       <c r="B27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1611,702 +1862,1281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FB8F9C-B598-4689-A06A-6A3FAD0895EB}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="63" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="22">
+        <v>3</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="22">
+        <v>4</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="22">
+        <v>5</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="22">
+        <v>6</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="22">
+        <v>7</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="22">
+        <v>8</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="22">
+        <v>9</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="22">
+        <v>10</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="22">
+        <v>11</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="22">
+        <v>12</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="22">
+        <v>13</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="22">
+        <v>14</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="22">
+        <v>15</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="22">
+        <v>16</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22">
+        <v>17</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="22">
+        <v>18</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="22">
+        <v>19</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="61">
+        <v>20</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="22">
+        <v>21</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="E23" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="22">
+        <v>22</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="22">
+        <v>23</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="22">
+        <v>24</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="22">
+        <v>25</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="22">
+        <v>26</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="22">
+        <v>27</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="22">
+        <v>28</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+      <c r="G30" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="22">
+        <v>29</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="22">
+        <v>30</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="22">
+        <v>31</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="61">
+        <v>32</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="22">
+        <v>33</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="22">
+        <v>34</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="22">
+        <v>35</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="22">
+        <v>36</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="22">
+        <v>37</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="22">
+        <v>38</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="46"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="30"/>
+      <c r="B41" s="61">
+        <v>39</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="22">
+        <v>40</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="36">
+        <v>0</v>
+      </c>
+      <c r="G42" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="B43" s="22">
+        <v>41</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+      <c r="G43" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="22">
+        <v>42</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="43"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+      <c r="B45" s="22">
+        <v>43</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
+      <c r="B46" s="22">
+        <v>44</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="22">
+        <v>45</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:7" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="30"/>
+      <c r="B48" s="61">
+        <v>46</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="39"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="44"/>
+    </row>
+    <row r="49" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="22">
+        <v>47</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="45"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="22">
+        <v>48</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="42"/>
+    </row>
+    <row r="51" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="22">
+        <v>49</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="42"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
+      <c r="B52" s="22">
+        <v>50</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="42"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+      <c r="B53" s="22">
+        <v>51</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="42"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="29"/>
+      <c r="B54" s="22">
+        <v>52</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="38"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="43"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
+      <c r="B55" s="22">
+        <v>53</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="38"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="43"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
+      <c r="B56" s="22">
+        <v>54</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="46"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="22">
+        <v>55</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="41"/>
+      <c r="F57" s="27">
+        <v>0</v>
+      </c>
+      <c r="G57" s="46"/>
+    </row>
+    <row r="58" spans="1:7" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="30"/>
+      <c r="B58" s="61">
+        <v>56</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="39"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="44"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="22">
+        <v>57</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="42"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="22">
+        <v>58</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="25"/>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="22">
+        <v>59</v>
+      </c>
+      <c r="C61" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="30"/>
+      <c r="B62" s="61">
+        <v>60</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="44"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="22">
         <v>61</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="C63" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="37"/>
+      <c r="F63" s="25">
+        <v>0</v>
+      </c>
+      <c r="G63" s="42"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="22">
+        <v>62</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="38"/>
+      <c r="F64" s="25">
+        <v>0</v>
+      </c>
+      <c r="G64" s="43"/>
+    </row>
+    <row r="65" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="22">
+        <v>63</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="38"/>
+      <c r="F65" s="25">
+        <v>0</v>
+      </c>
+      <c r="G65" s="43"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="30"/>
+      <c r="B66" s="61">
+        <v>64</v>
+      </c>
+      <c r="C66" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="67">
-        <v>0</v>
-      </c>
-      <c r="G3" s="54"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="68">
-        <v>0</v>
-      </c>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="56"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="56"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="56"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="56"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="56"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="56"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="67">
-        <v>0</v>
-      </c>
-      <c r="G15" s="54"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="68">
-        <v>0</v>
-      </c>
-      <c r="G16" s="56"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="68">
-        <v>0</v>
-      </c>
-      <c r="G17" s="56"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="68">
-        <v>0</v>
-      </c>
-      <c r="G18" s="56"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="68">
-        <v>0</v>
-      </c>
-      <c r="G19" s="56"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="56"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="59"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="57"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="58"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47" t="s">
+      <c r="D66" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="39"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="44"/>
+    </row>
+    <row r="67" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="22">
         <v>65</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="46" t="s">
+      <c r="C67" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="42"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="22">
         <v>66</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="54"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="45" t="s">
+      <c r="C68" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="43"/>
+    </row>
+    <row r="69" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="61">
         <v>67</v>
       </c>
-      <c r="D24" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="56"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="56"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="68">
-        <v>0</v>
-      </c>
-      <c r="G26" s="56"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="56"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="57"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="58"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="67">
-        <v>0</v>
-      </c>
-      <c r="G29" s="54"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="56"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="56"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="56"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="56"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="59"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="57"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="58"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="54"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="56"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="56"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="59"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="57"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="58"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="54"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="56"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="56"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="57"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="69"/>
-      <c r="G44" s="58"/>
+      <c r="C69" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
+++ b/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78694F8-571F-4850-BD0E-B0BC4BF4F5E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A4FE91-7D72-45A2-B957-3928184AAA98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4584" yWindow="1572" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
   </bookViews>
   <sheets>
     <sheet name="Ficha" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="174">
   <si>
     <t>Produto/ Serviço</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Revisão de estrutura elétrica</t>
   </si>
   <si>
-    <t>Limpeza e preparação do espaço</t>
-  </si>
-  <si>
     <t>Seleção e capacitação da equipe</t>
   </si>
   <si>
@@ -543,6 +540,36 @@
   </si>
   <si>
     <t>21-24</t>
+  </si>
+  <si>
+    <t>Josane</t>
+  </si>
+  <si>
+    <t>Hosana</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Vanderson</t>
+  </si>
+  <si>
+    <t>Limpeza e preparação do espaço (somente mobilia)</t>
+  </si>
+  <si>
+    <t>Final das Aulas (22/06)</t>
+  </si>
+  <si>
+    <t>1 semana antes</t>
+  </si>
+  <si>
+    <t>Ana Rodrigues/Neila</t>
+  </si>
+  <si>
+    <t>Liliana (lhsilva)</t>
   </si>
 </sst>
 </file>
@@ -1864,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FB8F9C-B598-4689-A06A-6A3FAD0895EB}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,8 +1901,8 @@
     <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1892,25 +1919,25 @@
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>98</v>
-      </c>
       <c r="D2" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>88</v>
-      </c>
       <c r="F2" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1924,10 +1951,10 @@
         <v>57</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="24">
         <v>0</v>
@@ -1936,19 +1963,19 @@
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="22">
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="24">
         <v>0</v>
@@ -1957,22 +1984,22 @@
     </row>
     <row r="5" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="22">
         <v>3</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="42"/>
     </row>
@@ -1982,16 +2009,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="42"/>
     </row>
@@ -2001,16 +2028,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="43"/>
     </row>
@@ -2020,16 +2047,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="42"/>
     </row>
@@ -2039,13 +2066,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>110</v>
-      </c>
       <c r="E9" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="42"/>
@@ -2056,16 +2083,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="43"/>
     </row>
@@ -2075,16 +2102,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="43"/>
     </row>
@@ -2094,13 +2121,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="43"/>
@@ -2111,13 +2138,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="43"/>
@@ -2128,13 +2155,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="43"/>
@@ -2145,16 +2172,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="43"/>
     </row>
@@ -2164,13 +2191,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="43"/>
@@ -2181,13 +2208,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="25">
         <v>0</v>
@@ -2200,16 +2227,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="43"/>
     </row>
@@ -2222,10 +2249,10 @@
         <v>58</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="43"/>
@@ -2239,10 +2266,10 @@
         <v>60</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="43"/>
@@ -2256,10 +2283,10 @@
         <v>61</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="43"/>
@@ -2270,32 +2297,32 @@
         <v>20</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="22">
         <v>21</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="24">
         <v>0</v>
@@ -2306,19 +2333,19 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="22">
         <v>22</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="24">
         <v>0</v>
@@ -2329,19 +2356,19 @@
     </row>
     <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="22">
         <v>23</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="24">
         <v>0</v>
@@ -2356,13 +2383,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="24">
         <v>0</v>
@@ -2377,16 +2404,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="42">
         <v>4</v>
@@ -2398,13 +2425,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="25">
         <v>0</v>
@@ -2419,13 +2446,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="25">
         <v>0</v>
@@ -2440,13 +2467,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="25">
         <v>0</v>
@@ -2461,13 +2488,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="25">
         <v>0</v>
@@ -2482,13 +2509,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="43">
@@ -2501,13 +2528,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="46">
@@ -2520,13 +2547,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="44">
@@ -2544,17 +2571,21 @@
         <v>63</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="G35" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="22">
         <v>34</v>
@@ -2563,28 +2594,40 @@
         <v>64</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="43"/>
+        <v>92</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="43">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" s="22">
         <v>35</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="43"/>
+        <v>92</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="43">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -2592,14 +2635,18 @@
         <v>36</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="38"/>
+        <v>92</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="F38" s="25"/>
-      <c r="G38" s="43"/>
+      <c r="G38" s="43">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -2607,14 +2654,20 @@
         <v>37</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="46"/>
+        <v>92</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0</v>
+      </c>
+      <c r="G39" s="46">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -2622,14 +2675,18 @@
         <v>38</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="41"/>
+        <v>92</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>111</v>
+      </c>
       <c r="F40" s="27"/>
-      <c r="G40" s="46"/>
+      <c r="G40" s="46">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="30"/>
@@ -2637,29 +2694,35 @@
         <v>39</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="39"/>
+        <v>92</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="F41" s="26"/>
-      <c r="G41" s="44"/>
+      <c r="G41" s="44">
+        <v>24</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="22">
         <v>40</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="F42" s="36">
         <v>0</v>
       </c>
@@ -2669,18 +2732,20 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="22">
         <v>41</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="37"/>
+        <v>93</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>164</v>
+      </c>
       <c r="F43" s="24">
         <v>0</v>
       </c>
@@ -2690,20 +2755,22 @@
     </row>
     <row r="44" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="22">
         <v>42</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="38"/>
+        <v>167</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>172</v>
+      </c>
       <c r="F44" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" s="43"/>
     </row>
@@ -2713,16 +2780,20 @@
         <v>43</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="38"/>
+        <v>93</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>165</v>
+      </c>
       <c r="F45" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="43"/>
+        <v>103</v>
+      </c>
+      <c r="G45" s="43">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
@@ -2730,16 +2801,20 @@
         <v>44</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="38"/>
+        <v>93</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>165</v>
+      </c>
       <c r="F46" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="43"/>
+        <v>104</v>
+      </c>
+      <c r="G46" s="43">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
@@ -2747,14 +2822,18 @@
         <v>45</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="41"/>
+        <v>167</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>173</v>
+      </c>
       <c r="F47" s="27"/>
-      <c r="G47" s="46"/>
+      <c r="G47" s="46">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:7" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
@@ -2762,65 +2841,77 @@
         <v>46</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="39"/>
+        <v>93</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="F48" s="26"/>
-      <c r="G48" s="44"/>
+      <c r="G48" s="44">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="22">
         <v>47</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="40"/>
+        <v>94</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="F49" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="45"/>
+        <v>103</v>
+      </c>
+      <c r="G49" s="45">
+        <v>24</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" s="22">
         <v>48</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>165</v>
+      </c>
       <c r="F50" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="42"/>
+        <v>103</v>
+      </c>
+      <c r="G50" s="42">
+        <v>32</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" s="22">
         <v>49</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="24"/>
@@ -2832,14 +2923,18 @@
         <v>50</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>165</v>
+      </c>
       <c r="F52" s="24"/>
-      <c r="G52" s="42"/>
+      <c r="G52" s="42">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
@@ -2847,10 +2942,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="24"/>
@@ -2862,12 +2957,14 @@
         <v>52</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="38"/>
+        <v>94</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>166</v>
+      </c>
       <c r="F54" s="25"/>
       <c r="G54" s="43"/>
     </row>
@@ -2877,10 +2974,10 @@
         <v>53</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="25"/>
@@ -2892,10 +2989,10 @@
         <v>54</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="27"/>
@@ -2907,16 +3004,20 @@
         <v>55</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="41"/>
+        <v>94</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>164</v>
+      </c>
       <c r="F57" s="27">
         <v>0</v>
       </c>
-      <c r="G57" s="46"/>
+      <c r="G57" s="46">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="1:7" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="30"/>
@@ -2924,10 +3025,10 @@
         <v>56</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="26"/>
@@ -2935,59 +3036,59 @@
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="22">
         <v>57</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G59" s="42"/>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="22">
         <v>58</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="22">
         <v>59</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="43"/>
@@ -2998,13 +3099,13 @@
         <v>60</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="44"/>
@@ -3017,54 +3118,66 @@
         <v>61</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="37"/>
+        <v>92</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="F63" s="25">
         <v>0</v>
       </c>
-      <c r="G63" s="42"/>
+      <c r="G63" s="42">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="22">
         <v>62</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="38"/>
+        <v>92</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="F64" s="25">
         <v>0</v>
       </c>
-      <c r="G64" s="43"/>
+      <c r="G64" s="43">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="22">
         <v>63</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="38"/>
+        <v>92</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>111</v>
+      </c>
       <c r="F65" s="25">
         <v>0</v>
       </c>
-      <c r="G65" s="43"/>
+      <c r="G65" s="43">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="30"/>
@@ -3072,10 +3185,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="26"/>
@@ -3083,57 +3196,57 @@
     </row>
     <row r="67" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" s="22">
         <v>65</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="42"/>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" s="22">
         <v>66</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B69" s="61">
         <v>67</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E69" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="44"/>

--- a/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
+++ b/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A4FE91-7D72-45A2-B957-3928184AAA98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E768C1-4F09-4A68-82D7-BDDE39026AE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
   </bookViews>
@@ -287,9 +287,6 @@
     <t>Comunicação de valores</t>
   </si>
   <si>
-    <t>Gravação de video institucional</t>
-  </si>
-  <si>
     <t>Fluxo de negociação</t>
   </si>
   <si>
@@ -570,6 +567,9 @@
   </si>
   <si>
     <t>Liliana (lhsilva)</t>
+  </si>
+  <si>
+    <t>Gravação de video tutorial</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +661,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -1021,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1168,9 +1174,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,51 +1246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,6 +1255,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,16 +1631,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1647,10 +1697,10 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="83"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1659,10 +1709,10 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="1:4" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1671,10 +1721,10 @@
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="72"/>
     </row>
     <row r="10" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1683,10 +1733,10 @@
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="85"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1695,60 +1745,60 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="72"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="72"/>
     </row>
     <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="64" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="72"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="64" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="72"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="64" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="72"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="64" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="72"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="69" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1759,9 +1809,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="79" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="77" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -1769,24 +1819,24 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="80"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="81"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="16" t="s">
         <v>49</v>
       </c>
@@ -1795,9 +1845,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="79" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="77" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -1805,40 +1855,40 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="81"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="72"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="82" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="82" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -1847,18 +1897,25 @@
       <c r="B27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:D12"/>
@@ -1866,18 +1923,11 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -1891,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FB8F9C-B598-4689-A06A-6A3FAD0895EB}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1919,25 +1969,25 @@
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>97</v>
-      </c>
       <c r="D2" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>87</v>
-      </c>
       <c r="F2" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1951,10 +2001,10 @@
         <v>57</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="24">
         <v>0</v>
@@ -1963,19 +2013,19 @@
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="22">
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="24">
         <v>0</v>
@@ -1984,22 +2034,22 @@
     </row>
     <row r="5" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="22">
         <v>3</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="42"/>
     </row>
@@ -2009,16 +2059,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="42"/>
     </row>
@@ -2028,16 +2078,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="43"/>
     </row>
@@ -2047,16 +2097,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="42"/>
     </row>
@@ -2066,13 +2116,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>109</v>
-      </c>
       <c r="E9" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="42"/>
@@ -2083,16 +2133,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="43"/>
     </row>
@@ -2102,16 +2152,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="43"/>
     </row>
@@ -2121,13 +2171,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="43"/>
@@ -2138,13 +2188,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="43"/>
@@ -2155,13 +2205,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="43"/>
@@ -2172,16 +2222,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="43"/>
     </row>
@@ -2191,13 +2241,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="43"/>
@@ -2208,13 +2258,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="25">
         <v>0</v>
@@ -2230,13 +2280,13 @@
         <v>69</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="43"/>
     </row>
@@ -2249,10 +2299,10 @@
         <v>58</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="43"/>
@@ -2266,10 +2316,10 @@
         <v>60</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="43"/>
@@ -2283,10 +2333,10 @@
         <v>61</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="43"/>
@@ -2300,10 +2350,10 @@
         <v>68</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="44"/>
@@ -2316,13 +2366,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="24">
         <v>0</v>
@@ -2333,19 +2383,19 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="22">
         <v>22</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="24">
         <v>0</v>
@@ -2356,19 +2406,19 @@
     </row>
     <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="22">
         <v>23</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="24">
         <v>0</v>
@@ -2383,13 +2433,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="24">
         <v>0</v>
@@ -2404,16 +2454,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G27" s="42">
         <v>4</v>
@@ -2428,10 +2478,10 @@
         <v>72</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="25">
         <v>0</v>
@@ -2449,10 +2499,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="25">
         <v>0</v>
@@ -2470,10 +2520,10 @@
         <v>74</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="25">
         <v>0</v>
@@ -2488,13 +2538,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="25">
         <v>0</v>
@@ -2512,10 +2562,10 @@
         <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="43">
@@ -2528,13 +2578,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="46">
@@ -2547,13 +2597,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="44">
@@ -2571,10 +2621,10 @@
         <v>63</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="24">
         <v>0</v>
@@ -2585,7 +2635,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="22">
         <v>34</v>
@@ -2594,13 +2644,13 @@
         <v>64</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G36" s="43">
         <v>8</v>
@@ -2608,22 +2658,22 @@
     </row>
     <row r="37" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="22">
         <v>35</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G37" s="43">
         <v>8</v>
@@ -2635,13 +2685,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="43">
@@ -2654,13 +2704,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="27">
         <v>0</v>
@@ -2675,13 +2725,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="46">
@@ -2694,13 +2744,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="44">
@@ -2715,13 +2765,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F42" s="36">
         <v>0</v>
@@ -2732,19 +2782,19 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="22">
         <v>41</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F43" s="24">
         <v>0</v>
@@ -2755,22 +2805,22 @@
     </row>
     <row r="44" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="22">
         <v>42</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="43"/>
     </row>
@@ -2783,13 +2833,13 @@
         <v>67</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G45" s="43">
         <v>4</v>
@@ -2804,13 +2854,13 @@
         <v>70</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="43">
         <v>1</v>
@@ -2825,10 +2875,10 @@
         <v>66</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="46">
@@ -2841,13 +2891,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="44">
@@ -2856,7 +2906,7 @@
     </row>
     <row r="49" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="22">
         <v>47</v>
@@ -2865,13 +2915,13 @@
         <v>75</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G49" s="45">
         <v>24</v>
@@ -2879,43 +2929,43 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="22">
         <v>48</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G50" s="42">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="22">
+    <row r="51" spans="1:7" s="97" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="92">
         <v>49</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="42"/>
+      <c r="C51" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="94"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="96"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
@@ -2923,13 +2973,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="42">
@@ -2945,7 +2995,7 @@
         <v>77</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="24"/>
@@ -2957,46 +3007,46 @@
         <v>52</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="22">
+    <row r="55" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="98"/>
+      <c r="B55" s="92">
         <v>53</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="43"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="22">
+      <c r="D55" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="100"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="102"/>
+    </row>
+    <row r="56" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="98"/>
+      <c r="B56" s="92">
         <v>54</v>
       </c>
-      <c r="C56" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="46"/>
+      <c r="C56" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="104"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="106"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
@@ -3004,13 +3054,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F57" s="27">
         <v>0</v>
@@ -3019,76 +3069,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="30"/>
-      <c r="B58" s="61">
+    <row r="58" spans="1:7" s="92" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="107"/>
+      <c r="B58" s="108">
         <v>56</v>
       </c>
-      <c r="C58" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="44"/>
+      <c r="C58" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="110"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="112"/>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="22">
         <v>57</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G59" s="42"/>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="22">
         <v>58</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B61" s="22">
         <v>59</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="43"/>
@@ -3099,13 +3149,13 @@
         <v>60</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="44"/>
@@ -3118,13 +3168,13 @@
         <v>61</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F63" s="25">
         <v>0</v>
@@ -3135,19 +3185,19 @@
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="22">
         <v>62</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F64" s="25">
         <v>0</v>
@@ -3158,19 +3208,19 @@
     </row>
     <row r="65" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="22">
         <v>63</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F65" s="25">
         <v>0</v>
@@ -3185,10 +3235,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="26"/>
@@ -3196,57 +3246,57 @@
     </row>
     <row r="67" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" s="22">
         <v>65</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="42"/>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="22">
         <v>66</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="61">
         <v>67</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E69" s="63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="44"/>

--- a/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
+++ b/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E768C1-4F09-4A68-82D7-BDDE39026AE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C55A64B-CF41-4FE4-A359-468206274AC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
   </bookViews>
@@ -365,9 +365,6 @@
     <t>Execução de mudanças no Lyceum</t>
   </si>
   <si>
-    <t>Estratégia de comunição</t>
-  </si>
-  <si>
     <t>Levantamento de dados para dimensionamento de capacidade</t>
   </si>
   <si>
@@ -570,6 +567,9 @@
   </si>
   <si>
     <t>Gravação de video tutorial</t>
+  </si>
+  <si>
+    <t>Estratégia de comunicação</t>
   </si>
 </sst>
 </file>
@@ -1174,87 +1174,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1299,6 +1218,87 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,16 +1631,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1697,10 +1697,10 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="90"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1709,10 +1709,10 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" spans="1:4" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1721,10 +1721,10 @@
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="72"/>
+      <c r="D9" s="86"/>
     </row>
     <row r="10" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1733,10 +1733,10 @@
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="92"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1745,60 +1745,60 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="72"/>
+      <c r="D11" s="86"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="86"/>
     </row>
     <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="72" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="86"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="72" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="72"/>
+      <c r="D14" s="86"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="72" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="86"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="72" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="72"/>
+      <c r="D16" s="86"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="98" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1809,9 +1809,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="77" t="s">
+      <c r="A18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="101" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -1819,24 +1819,24 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="78"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="79"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="16" t="s">
         <v>49</v>
       </c>
@@ -1845,9 +1845,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="67"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="77" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="101" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -1855,40 +1855,40 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="79"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="72"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="64" t="s">
+      <c r="A25" s="96"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="65"/>
+      <c r="D25" s="105"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="64" t="s">
+      <c r="A26" s="97"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="105"/>
     </row>
     <row r="27" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -1897,13 +1897,30 @@
       <c r="B27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C7:D7"/>
@@ -1911,23 +1928,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FB8F9C-B598-4689-A06A-6A3FAD0895EB}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,15 +1957,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="23" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
@@ -1987,7 +1987,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2001,7 +2001,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>88</v>
@@ -2019,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>88</v>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="5" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="22">
         <v>3</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>88</v>
@@ -2059,10 +2059,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>88</v>
@@ -2078,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>88</v>
@@ -2097,10 +2097,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>88</v>
@@ -2116,10 +2116,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>88</v>
@@ -2133,10 +2133,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>88</v>
@@ -2152,10 +2152,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>88</v>
@@ -2174,7 +2174,7 @@
         <v>104</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>88</v>
@@ -2188,10 +2188,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>88</v>
@@ -2205,10 +2205,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>88</v>
@@ -2222,10 +2222,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>88</v>
@@ -2241,10 +2241,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>88</v>
@@ -2258,10 +2258,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>87</v>
@@ -2280,7 +2280,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>89</v>
@@ -2299,7 +2299,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>89</v>
@@ -2316,7 +2316,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>89</v>
@@ -2333,7 +2333,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>89</v>
@@ -2350,7 +2350,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>89</v>
@@ -2366,10 +2366,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>87</v>
@@ -2389,10 +2389,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="37" t="s">
         <v>87</v>
@@ -2406,16 +2406,16 @@
     </row>
     <row r="25" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="22">
         <v>23</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>87</v>
@@ -2433,10 +2433,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="37" t="s">
         <v>87</v>
@@ -2454,16 +2454,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G27" s="42">
         <v>4</v>
@@ -2478,7 +2478,7 @@
         <v>72</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>87</v>
@@ -2499,7 +2499,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>87</v>
@@ -2520,7 +2520,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>87</v>
@@ -2538,10 +2538,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>87</v>
@@ -2562,7 +2562,7 @@
         <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>87</v>
@@ -2581,10 +2581,10 @@
         <v>99</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="46">
@@ -2600,7 +2600,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="39" t="s">
         <v>87</v>
@@ -2624,7 +2624,7 @@
         <v>91</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="24">
         <v>0</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="22">
         <v>34</v>
@@ -2647,10 +2647,10 @@
         <v>91</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="43">
         <v>8</v>
@@ -2658,22 +2658,22 @@
     </row>
     <row r="37" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="22">
         <v>35</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="43">
         <v>8</v>
@@ -2685,13 +2685,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="43">
@@ -2704,13 +2704,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F39" s="27">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="46">
@@ -2744,13 +2744,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="44">
@@ -2765,13 +2765,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>92</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F42" s="36">
         <v>0</v>
@@ -2782,19 +2782,19 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="22">
         <v>41</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F43" s="24">
         <v>0</v>
@@ -2805,19 +2805,19 @@
     </row>
     <row r="44" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="22">
         <v>42</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>103</v>
@@ -2836,7 +2836,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>102</v>
@@ -2857,7 +2857,7 @@
         <v>92</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>103</v>
@@ -2875,10 +2875,10 @@
         <v>66</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="46">
@@ -2891,13 +2891,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="44">
@@ -2906,7 +2906,7 @@
     </row>
     <row r="49" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="B49" s="22">
         <v>47</v>
@@ -2918,7 +2918,7 @@
         <v>93</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" s="36" t="s">
         <v>102</v>
@@ -2929,19 +2929,19 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" s="22">
         <v>48</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>102</v>
@@ -2950,22 +2950,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="97" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="92">
+    <row r="51" spans="1:7" s="70" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="65">
         <v>49</v>
       </c>
-      <c r="C51" s="93" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="94"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="96"/>
+      <c r="C51" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="69"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
@@ -2973,13 +2973,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="42">
@@ -2995,7 +2995,7 @@
         <v>77</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="24"/>
@@ -3007,46 +3007,46 @@
         <v>52</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="98"/>
-      <c r="B55" s="92">
+    <row r="55" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="71"/>
+      <c r="B55" s="65">
         <v>53</v>
       </c>
-      <c r="C55" s="99" t="s">
+      <c r="C55" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="100"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="102"/>
-    </row>
-    <row r="56" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="98"/>
-      <c r="B56" s="92">
+      <c r="D55" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="73"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
+    </row>
+    <row r="56" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="71"/>
+      <c r="B56" s="65">
         <v>54</v>
       </c>
-      <c r="C56" s="103" t="s">
+      <c r="C56" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="106"/>
+      <c r="D56" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="77"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="79"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
@@ -3054,13 +3054,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>93</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F57" s="27">
         <v>0</v>
@@ -3069,20 +3069,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="92" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="107"/>
-      <c r="B58" s="108">
+    <row r="58" spans="1:7" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="80"/>
+      <c r="B58" s="81">
         <v>56</v>
       </c>
-      <c r="C58" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="110"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="112"/>
+      <c r="C58" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="83"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="85"/>
     </row>
     <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="28" t="s">
@@ -3095,7 +3095,7 @@
         <v>84</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" s="37" t="s">
         <v>90</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B60" s="22">
         <v>58</v>
@@ -3116,7 +3116,7 @@
         <v>81</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" s="38" t="s">
         <v>90</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="61" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61" s="22">
         <v>59</v>
@@ -3135,7 +3135,7 @@
         <v>82</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>90</v>
@@ -3152,7 +3152,7 @@
         <v>83</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" s="39" t="s">
         <v>90</v>
@@ -3168,13 +3168,13 @@
         <v>61</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>91</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F63" s="25">
         <v>0</v>
@@ -3185,19 +3185,19 @@
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="22">
         <v>62</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F64" s="25">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="65" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="22">
         <v>63</v>
@@ -3220,7 +3220,7 @@
         <v>91</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F65" s="25">
         <v>0</v>
@@ -3246,57 +3246,57 @@
     </row>
     <row r="67" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" s="22">
         <v>65</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="42"/>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="22">
         <v>66</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="61">
         <v>67</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D69" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69" s="63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="44"/>

--- a/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
+++ b/Arquivos Externos/Estrutura Projeto - Mat.MedicinaFTC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\RGitRep\Arquivos Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C55A64B-CF41-4FE4-A359-468206274AC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E1E740-CE5D-41A0-8D67-0891324765B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0882655A-7B58-4420-A7D6-CB26F8833019}"/>
   </bookViews>
   <sheets>
     <sheet name="Ficha" sheetId="1" r:id="rId1"/>
-    <sheet name="Pacotes" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="Pacotes" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Ficha!$A$1:$D$27</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="199">
   <si>
     <t>Produto/ Serviço</t>
   </si>
@@ -571,12 +572,91 @@
   <si>
     <t>Estratégia de comunicação</t>
   </si>
+  <si>
+    <t>Pontos Críticos</t>
+  </si>
+  <si>
+    <t>Agendamento de Alunos</t>
+  </si>
+  <si>
+    <t>Seleção de Turma</t>
+  </si>
+  <si>
+    <t>Modos de pagamento/Mat. Online/Financeira</t>
+  </si>
+  <si>
+    <t>Lyceum</t>
+  </si>
+  <si>
+    <t>Pagamento/ Registro em Cheque</t>
+  </si>
+  <si>
+    <t>Lyceum/Solução Customizada</t>
+  </si>
+  <si>
+    <t>Alinhamento e Priorização com Techne</t>
+  </si>
+  <si>
+    <t>Solução</t>
+  </si>
+  <si>
+    <t>Customizada</t>
+  </si>
+  <si>
+    <t>Equipe</t>
+  </si>
+  <si>
+    <t>Resumo e Histórico</t>
+  </si>
+  <si>
+    <t>04/06/19 - Módulo com interface em duas camadas: Aluno (Usuário) e Equipe de Matrícula (Gestão).</t>
+  </si>
+  <si>
+    <t>04/06/19 - Controle de todos os tipos de pagamento da matricula financeira presencial e online, incluindo boleto, cartão, cheque eletrônico e transferência; Garantir processo completo para a matrícula financeira.</t>
+  </si>
+  <si>
+    <t>04/06/19 - Módulo que permita a seleção de subgrupo da disciplina tutorial, associado à grupo de disciplinas/horários fechado que será associado ao aluno.</t>
+  </si>
+  <si>
+    <t>04/06/19 - Solução para leitura e impressão de cheques a partir do Lyceum, garantindo redução do tempo com este modo de pagamento. Caso não seja possível realizar impressão a partir do Lyceum, disponibilizar valor total e número de parcelas para impressão em solução separada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/19 - Contato direto com a Techne sobre Impressão de Cheque, Separação de grupo de alunos que realizou antecipação, </t>
+  </si>
+  <si>
+    <t>Prazo Limite</t>
+  </si>
+  <si>
+    <t>-Vithor
+-Laercio</t>
+  </si>
+  <si>
+    <t>-Fábio
+-Igor</t>
+  </si>
+  <si>
+    <t>-Lucas
+-Kelly</t>
+  </si>
+  <si>
+    <t>-Laerte
+-Javert</t>
+  </si>
+  <si>
+    <t>-Juliano</t>
+  </si>
+  <si>
+    <t>Check points diários as 10:00 e 16:00</t>
+  </si>
+  <si>
+    <t>Trabalho em 08-09/06 e 15-16/06</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,8 +721,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +755,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -1027,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1218,9 +1312,54 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1245,51 +1384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,6 +1392,23 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1631,16 +1742,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1697,10 +1808,10 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="105"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1709,10 +1820,10 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="86"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:4" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1721,10 +1832,10 @@
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="86"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1733,10 +1844,10 @@
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="107"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1745,60 +1856,60 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="94"/>
     </row>
     <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="86" t="s">
+      <c r="A13" s="96"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="86"/>
+      <c r="D13" s="94"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="86" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="94"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="86" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="86"/>
+      <c r="D15" s="94"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="86" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="94"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1809,9 +1920,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="101" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="99" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -1819,24 +1930,24 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="103"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="16" t="s">
         <v>49</v>
       </c>
@@ -1845,9 +1956,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="101" t="s">
+      <c r="A22" s="89"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="99" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -1855,40 +1966,40 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="103"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="86"/>
+      <c r="D24" s="94"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="96"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="104" t="s">
+      <c r="A25" s="89"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="105"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="104" t="s">
+      <c r="A26" s="90"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="105"/>
+      <c r="D26" s="87"/>
     </row>
     <row r="27" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -1897,18 +2008,25 @@
       <c r="B27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="105"/>
+      <c r="D27" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:D12"/>
@@ -1916,18 +2034,11 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -1938,10 +2049,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B7FCC8-6E2D-4394-9875-FA76814280AA}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="117" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="117"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="118" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="115">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="115">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="115">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="115">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="115">
+        <v>43628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FB8F9C-B598-4689-A06A-6A3FAD0895EB}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
